--- a/Annotations/Old/JekyllAndHyde.xlsx
+++ b/Annotations/Old/JekyllAndHyde.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Old\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9252" windowHeight="10620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9252" windowHeight="10620"/>
   </bookViews>
   <sheets>
     <sheet name="jekyll" sheetId="1" r:id="rId1"/>
@@ -1277,14 +1277,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P120"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="35" style="2" customWidth="1"/>
     <col min="4" max="4" width="46" style="1" customWidth="1"/>
     <col min="5" max="5" width="54" style="2" customWidth="1"/>
@@ -1346,7 +1347,7 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A33" ca="1" si="0">RAND()</f>
-        <v>0.96496590287242168</v>
+        <v>0.5874459716820517</v>
       </c>
       <c r="B2" s="2">
         <v>93</v>
@@ -1370,7 +1371,7 @@
     <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94718671249249287</v>
+        <v>0.95425724508060339</v>
       </c>
       <c r="B3" s="2">
         <v>102</v>
@@ -1394,7 +1395,7 @@
     <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9245640943800697</v>
+        <v>0.61931789911284607</v>
       </c>
       <c r="B4" s="2">
         <v>83</v>
@@ -1415,7 +1416,7 @@
     <row r="5" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80900838217357074</v>
+        <v>0.69380467693882297</v>
       </c>
       <c r="B5" s="2">
         <v>51</v>
@@ -1439,7 +1440,7 @@
     <row r="6" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27254048941133469</v>
+        <v>0.59100649902694313</v>
       </c>
       <c r="B6" s="2">
         <v>80</v>
@@ -1466,7 +1467,7 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83944115369040173</v>
+        <v>0.91501941424739663</v>
       </c>
       <c r="B7" s="2">
         <v>104</v>
@@ -1490,7 +1491,7 @@
     <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89421013683794726</v>
+        <v>0.33061841788586999</v>
       </c>
       <c r="B8" s="2">
         <v>114</v>
@@ -1514,7 +1515,7 @@
     <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23473901234111549</v>
+        <v>0.4920922046981745</v>
       </c>
       <c r="B9" s="2">
         <v>96</v>
@@ -1538,7 +1539,7 @@
     <row r="10" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67538256732643698</v>
+        <v>0.49685583032645231</v>
       </c>
       <c r="B10" s="2">
         <v>37</v>
@@ -1562,7 +1563,7 @@
     <row r="11" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3652417062408464</v>
+        <v>0.11332917277405419</v>
       </c>
       <c r="B11" s="2">
         <v>12</v>
@@ -1583,7 +1584,7 @@
     <row r="12" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2270969829562216</v>
+        <v>0.92983903204972462</v>
       </c>
       <c r="B12" s="2">
         <v>53</v>
@@ -1610,7 +1611,7 @@
     <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92088620903160279</v>
+        <v>0.58242862329374556</v>
       </c>
       <c r="B13" s="2">
         <v>118</v>
@@ -1634,7 +1635,7 @@
     <row r="14" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82748109693580885</v>
+        <v>0.31195896635039566</v>
       </c>
       <c r="B14" s="2">
         <v>36</v>
@@ -1658,7 +1659,7 @@
     <row r="15" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60472355092801711</v>
+        <v>0.66582055035262311</v>
       </c>
       <c r="B15" s="2">
         <v>39</v>
@@ -1682,7 +1683,7 @@
     <row r="16" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8241830183559959E-2</v>
+        <v>0.97875901016819222</v>
       </c>
       <c r="B16" s="2">
         <v>27</v>
@@ -1706,7 +1707,7 @@
     <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93572337755921731</v>
+        <v>0.62293120511802569</v>
       </c>
       <c r="B17" s="2">
         <v>99</v>
@@ -1733,7 +1734,7 @@
     <row r="18" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6748965411696608</v>
+        <v>0.40939322351937113</v>
       </c>
       <c r="B18" s="2">
         <v>44</v>
@@ -1760,7 +1761,7 @@
     <row r="19" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30724042661858264</v>
+        <v>0.16379059999538337</v>
       </c>
       <c r="B19" s="2">
         <v>16</v>
@@ -1781,7 +1782,7 @@
     <row r="20" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6606956956660418</v>
+        <v>0.91795068636381505</v>
       </c>
       <c r="B20" s="2">
         <v>14</v>
@@ -1802,7 +1803,7 @@
     <row r="21" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67967207273278452</v>
+        <v>0.15374369184080017</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
@@ -1829,7 +1830,7 @@
     <row r="22" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1705669377239537</v>
+        <v>0.51528989975721318</v>
       </c>
       <c r="B22" s="2">
         <v>65</v>
@@ -1850,7 +1851,7 @@
     <row r="23" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.323762425044683</v>
+        <v>0.23190227881575298</v>
       </c>
       <c r="B23" s="2">
         <v>23</v>
@@ -1874,7 +1875,7 @@
     <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8607790502824737E-2</v>
+        <v>0.16171711452562598</v>
       </c>
       <c r="B24" s="2">
         <v>119</v>
@@ -1901,7 +1902,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30715392433477773</v>
+        <v>0.63854847949609572</v>
       </c>
       <c r="B25" s="2">
         <v>62</v>
@@ -1922,7 +1923,7 @@
     <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56043687305814471</v>
+        <v>0.76906148325181778</v>
       </c>
       <c r="B26" s="2">
         <v>82</v>
@@ -1946,7 +1947,7 @@
     <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4277297784287462E-2</v>
+        <v>7.1559416057986991E-2</v>
       </c>
       <c r="B27" s="2">
         <v>107</v>
@@ -1973,7 +1974,7 @@
     <row r="28" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44881437210843</v>
+        <v>0.46883882806928279</v>
       </c>
       <c r="B28" s="2">
         <v>15</v>
@@ -1994,7 +1995,7 @@
     <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10499848018242663</v>
+        <v>5.0115383183731654E-2</v>
       </c>
       <c r="B29" s="2">
         <v>98</v>
@@ -2021,7 +2022,7 @@
     <row r="30" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9044200124600712</v>
+        <v>0.60569860246776508</v>
       </c>
       <c r="B30" s="2">
         <v>21</v>
@@ -2042,7 +2043,7 @@
     <row r="31" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88999499833543461</v>
+        <v>0.76744957281372639</v>
       </c>
       <c r="B31" s="2">
         <v>71</v>
@@ -2063,7 +2064,7 @@
     <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4720647299423035E-2</v>
+        <v>0.76271839306734357</v>
       </c>
       <c r="B32" s="2">
         <v>61</v>
@@ -2084,7 +2085,7 @@
     <row r="33" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5554530622877611E-2</v>
+        <v>8.4720664763916931E-2</v>
       </c>
       <c r="B33" s="2">
         <v>49</v>
@@ -2111,7 +2112,7 @@
     <row r="34" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ref="A34:A65" ca="1" si="1">RAND()</f>
-        <v>0.58528506121812429</v>
+        <v>0.53840128162393985</v>
       </c>
       <c r="B34" s="2">
         <v>91</v>
@@ -2135,7 +2136,7 @@
     <row r="35" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.860514448593801</v>
+        <v>0.13010012858565612</v>
       </c>
       <c r="B35" s="2">
         <v>11</v>
@@ -2156,7 +2157,7 @@
     <row r="36" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48363005417214755</v>
+        <v>0.42909139971634369</v>
       </c>
       <c r="B36" s="2">
         <v>69</v>
@@ -2180,7 +2181,7 @@
     <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75672989806015134</v>
+        <v>0.35168996043242329</v>
       </c>
       <c r="B37" s="2">
         <v>73</v>
@@ -2207,7 +2208,7 @@
     <row r="38" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67276005557291829</v>
+        <v>0.63851866453890882</v>
       </c>
       <c r="B38" s="2">
         <v>28</v>
@@ -2231,7 +2232,7 @@
     <row r="39" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61652572183583776</v>
+        <v>0.67400039529687694</v>
       </c>
       <c r="B39" s="2">
         <v>1</v>
@@ -2255,7 +2256,7 @@
     <row r="40" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62399346530744015</v>
+        <v>7.4158426306526692E-2</v>
       </c>
       <c r="B40" s="2">
         <v>10</v>
@@ -2282,7 +2283,7 @@
     <row r="41" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97319128751900807</v>
+        <v>0.85408664968588233</v>
       </c>
       <c r="B41" s="2">
         <v>78</v>
@@ -2306,7 +2307,7 @@
     <row r="42" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78223820397997068</v>
+        <v>0.8844185742162658</v>
       </c>
       <c r="B42" s="2">
         <v>89</v>
@@ -2330,7 +2331,7 @@
     <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7993666515863813E-2</v>
+        <v>0.46965722871945215</v>
       </c>
       <c r="B43" s="2">
         <v>75</v>
@@ -2354,7 +2355,7 @@
     <row r="44" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84487197985709739</v>
+        <v>0.59754895605830394</v>
       </c>
       <c r="B44" s="2">
         <v>100</v>
@@ -2378,7 +2379,7 @@
     <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9052200681203425</v>
+        <v>0.73063597970615712</v>
       </c>
       <c r="B45" s="2">
         <v>116</v>
@@ -2402,7 +2403,7 @@
     <row r="46" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91518664775820202</v>
+        <v>0.95076577486556324</v>
       </c>
       <c r="B46" s="2">
         <v>29</v>
@@ -2426,7 +2427,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14686361615347587</v>
+        <v>0.25442173176911187</v>
       </c>
       <c r="B47" s="2">
         <v>63</v>
@@ -2450,7 +2451,7 @@
     <row r="48" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1456749008962097E-2</v>
+        <v>7.8197532835413419E-3</v>
       </c>
       <c r="B48" s="2">
         <v>54</v>
@@ -2474,7 +2475,7 @@
     <row r="49" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41324412692299639</v>
+        <v>0.52819479347221254</v>
       </c>
       <c r="B49" s="2">
         <v>115</v>
@@ -2498,7 +2499,7 @@
     <row r="50" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4659631911105899E-3</v>
+        <v>0.56092909666493007</v>
       </c>
       <c r="B50" s="2">
         <v>19</v>
@@ -2519,7 +2520,7 @@
     <row r="51" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.65588544596367E-2</v>
+        <v>8.4677619522602665E-2</v>
       </c>
       <c r="B51" s="2">
         <v>30</v>
@@ -2549,7 +2550,7 @@
     <row r="52" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.2395785922150031E-2</v>
+        <v>0.59377390035859345</v>
       </c>
       <c r="B52" s="2">
         <v>103</v>
@@ -2576,7 +2577,7 @@
     <row r="53" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71496179344891408</v>
+        <v>0.89537576775316496</v>
       </c>
       <c r="B53" s="2">
         <v>109</v>
@@ -2600,7 +2601,7 @@
     <row r="54" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80299142379870336</v>
+        <v>0.38265683975622211</v>
       </c>
       <c r="B54" s="2">
         <v>111</v>
@@ -2627,7 +2628,7 @@
     <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56107266851874626</v>
+        <v>0.43316355829147102</v>
       </c>
       <c r="B55" s="2">
         <v>113</v>
@@ -2654,7 +2655,7 @@
     <row r="56" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88316207123866675</v>
+        <v>0.32475382306665435</v>
       </c>
       <c r="B56" s="2">
         <v>84</v>
@@ -2675,7 +2676,7 @@
     <row r="57" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61147086418200691</v>
+        <v>0.38554922572894446</v>
       </c>
       <c r="B57" s="2">
         <v>70</v>
@@ -2702,7 +2703,7 @@
     <row r="58" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70158100044019278</v>
+        <v>0.34591632313943532</v>
       </c>
       <c r="B58" s="2">
         <v>20</v>
@@ -2723,7 +2724,7 @@
     <row r="59" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55460606753480635</v>
+        <v>0.13814038153573927</v>
       </c>
       <c r="B59" s="2">
         <v>81</v>
@@ -2747,7 +2748,7 @@
     <row r="60" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0098950258692292E-2</v>
+        <v>0.8358641763782102</v>
       </c>
       <c r="B60" s="2">
         <v>101</v>
@@ -2774,7 +2775,7 @@
     <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83047436212460057</v>
+        <v>0.39013475051147051</v>
       </c>
       <c r="B61" s="2">
         <v>106</v>
@@ -2798,7 +2799,7 @@
     <row r="62" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54183861260182486</v>
+        <v>0.3575606707269019</v>
       </c>
       <c r="B62" s="2">
         <v>34</v>
@@ -2825,7 +2826,7 @@
     <row r="63" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45050583846535497</v>
+        <v>0.59438958587286728</v>
       </c>
       <c r="B63" s="2">
         <v>17</v>
@@ -2846,7 +2847,7 @@
     <row r="64" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35080210520606048</v>
+        <v>0.89628957599222836</v>
       </c>
       <c r="B64" s="2">
         <v>6</v>
@@ -2870,7 +2871,7 @@
     <row r="65" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16533413839951072</v>
+        <v>0.1125989062980749</v>
       </c>
       <c r="B65" s="2">
         <v>7</v>
@@ -2894,7 +2895,7 @@
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A97" ca="1" si="2">RAND()</f>
-        <v>0.58114901270443531</v>
+        <v>0.55928402556748735</v>
       </c>
       <c r="B66" s="2">
         <v>64</v>
@@ -2921,7 +2922,7 @@
     <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50931851418032592</v>
+        <v>0.82180090525985738</v>
       </c>
       <c r="B67" s="2">
         <v>95</v>
@@ -2945,7 +2946,7 @@
     <row r="68" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.245131002404266</v>
+        <v>0.65468923817818792</v>
       </c>
       <c r="B68" s="2">
         <v>24</v>
@@ -2969,7 +2970,7 @@
     <row r="69" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35574898046777492</v>
+        <v>0.16025282490837978</v>
       </c>
       <c r="B69" s="2">
         <v>57</v>
@@ -2993,7 +2994,7 @@
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97980595420395222</v>
+        <v>0.85305256959571196</v>
       </c>
       <c r="B70" s="2">
         <v>94</v>
@@ -3017,7 +3018,7 @@
     <row r="71" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65418077999133328</v>
+        <v>0.31672479636355166</v>
       </c>
       <c r="B71" s="2">
         <v>79</v>
@@ -3041,7 +3042,7 @@
     <row r="72" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99068204600662302</v>
+        <v>0.74467952097478207</v>
       </c>
       <c r="B72" s="2">
         <v>59</v>
@@ -3062,7 +3063,7 @@
     <row r="73" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.8479133932878264E-2</v>
+        <v>0.91156959383229519</v>
       </c>
       <c r="B73" s="2">
         <v>86</v>
@@ -3083,7 +3084,7 @@
     <row r="74" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12003342914873527</v>
+        <v>0.73333839920773292</v>
       </c>
       <c r="B74" s="2">
         <v>90</v>
@@ -3110,7 +3111,7 @@
     <row r="75" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4508143495338799E-2</v>
+        <v>0.16151931505681283</v>
       </c>
       <c r="B75" s="2">
         <v>43</v>
@@ -3140,7 +3141,7 @@
     <row r="76" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54467063783991077</v>
+        <v>0.48976836826657533</v>
       </c>
       <c r="B76" s="2">
         <v>22</v>
@@ -3167,7 +3168,7 @@
     <row r="77" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0899057097667835E-2</v>
+        <v>0.48536684682145081</v>
       </c>
       <c r="B77" s="2">
         <v>40</v>
@@ -3188,7 +3189,7 @@
     <row r="78" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46081865303450875</v>
+        <v>0.34992346590347223</v>
       </c>
       <c r="B78" s="2">
         <v>38</v>
@@ -3209,7 +3210,7 @@
     <row r="79" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13889819717075325</v>
+        <v>0.72542536895619958</v>
       </c>
       <c r="B79" s="2">
         <v>32</v>
@@ -3230,7 +3231,7 @@
     <row r="80" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37085116335846036</v>
+        <v>0.24499486122887437</v>
       </c>
       <c r="B80" s="2">
         <v>3</v>
@@ -3254,7 +3255,7 @@
     <row r="81" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4025300066977906</v>
+        <v>0.46535669162109505</v>
       </c>
       <c r="B81" s="2">
         <v>48</v>
@@ -3281,7 +3282,7 @@
     <row r="82" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.2540273603291183E-2</v>
+        <v>0.27061985999868043</v>
       </c>
       <c r="B82" s="2">
         <v>72</v>
@@ -3305,7 +3306,7 @@
     <row r="83" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38974717927375291</v>
+        <v>0.46887218359136229</v>
       </c>
       <c r="B83" s="2">
         <v>42</v>
@@ -3329,7 +3330,7 @@
     <row r="84" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86389907350419126</v>
+        <v>6.7422218114474131E-2</v>
       </c>
       <c r="B84" s="2">
         <v>105</v>
@@ -3356,7 +3357,7 @@
     <row r="85" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77697102437861454</v>
+        <v>7.844677185622817E-2</v>
       </c>
       <c r="B85" s="2">
         <v>92</v>
@@ -3380,7 +3381,7 @@
     <row r="86" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76612506865794794</v>
+        <v>0.67472352833106886</v>
       </c>
       <c r="B86" s="2">
         <v>50</v>
@@ -3404,7 +3405,7 @@
     <row r="87" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45185246158626968</v>
+        <v>0.39670528787750992</v>
       </c>
       <c r="B87" s="2">
         <v>85</v>
@@ -3425,7 +3426,7 @@
     <row r="88" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51921364838510609</v>
+        <v>0.69216604610315535</v>
       </c>
       <c r="B88" s="2">
         <v>56</v>
@@ -3452,7 +3453,7 @@
     <row r="89" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99040449256000396</v>
+        <v>0.36588788616731505</v>
       </c>
       <c r="B89" s="2">
         <v>31</v>
@@ -3479,7 +3480,7 @@
     <row r="90" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74729565209505366</v>
+        <v>0.95234397233398038</v>
       </c>
       <c r="B90" s="2">
         <v>88</v>
@@ -3506,7 +3507,7 @@
     <row r="91" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16418514408593343</v>
+        <v>0.49484537912588444</v>
       </c>
       <c r="B91" s="2">
         <v>58</v>
@@ -3533,7 +3534,7 @@
     <row r="92" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27572525759366917</v>
+        <v>5.1759910661843489E-2</v>
       </c>
       <c r="B92" s="2">
         <v>117</v>
@@ -3554,7 +3555,7 @@
     <row r="93" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.2961476057241765E-2</v>
+        <v>0.3563739641065915</v>
       </c>
       <c r="B93" s="2">
         <v>55</v>
@@ -3575,7 +3576,7 @@
     <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4607166497632282E-2</v>
+        <v>0.10542316309224486</v>
       </c>
       <c r="B94" s="2">
         <v>110</v>
@@ -3602,7 +3603,7 @@
     <row r="95" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89056554852834302</v>
+        <v>0.83415054776974085</v>
       </c>
       <c r="B95" s="2">
         <v>41</v>
@@ -3623,7 +3624,7 @@
     <row r="96" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97739207085879587</v>
+        <v>0.60511216410952351</v>
       </c>
       <c r="B96" s="2">
         <v>60</v>
@@ -3647,7 +3648,7 @@
     <row r="97" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13201233334094198</v>
+        <v>0.14783290401855265</v>
       </c>
       <c r="B97" s="2">
         <v>18</v>
@@ -3668,7 +3669,7 @@
     <row r="98" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ref="A98:A120" ca="1" si="3">RAND()</f>
-        <v>0.24741353674001054</v>
+        <v>0.10302103588843337</v>
       </c>
       <c r="B98" s="2">
         <v>112</v>
@@ -3692,7 +3693,7 @@
     <row r="99" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.4908762588967366E-2</v>
+        <v>0.6687259925948339</v>
       </c>
       <c r="B99" s="2">
         <v>74</v>
@@ -3716,7 +3717,7 @@
     <row r="100" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53423554985833266</v>
+        <v>2.5631422072183163E-2</v>
       </c>
       <c r="B100" s="2">
         <v>8</v>
@@ -3737,7 +3738,7 @@
     <row r="101" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69139719742357941</v>
+        <v>0.16236707098443048</v>
       </c>
       <c r="B101" s="2">
         <v>87</v>
@@ -3758,7 +3759,7 @@
     <row r="102" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9496862196942446</v>
+        <v>0.87131639021387486</v>
       </c>
       <c r="B102" s="2">
         <v>13</v>
@@ -3779,7 +3780,7 @@
     <row r="103" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11896443201014206</v>
+        <v>0.36538436927134588</v>
       </c>
       <c r="B103" s="2">
         <v>47</v>
@@ -3803,7 +3804,7 @@
     <row r="104" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75844871088295718</v>
+        <v>0.70142401681928812</v>
       </c>
       <c r="B104" s="2">
         <v>9</v>
@@ -3827,7 +3828,7 @@
     <row r="105" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70156983664148909</v>
+        <v>0.62932441687327012</v>
       </c>
       <c r="B105" s="2">
         <v>33</v>
@@ -3848,7 +3849,7 @@
     <row r="106" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6226761956022471E-2</v>
+        <v>0.83680087938627346</v>
       </c>
       <c r="B106" s="2">
         <v>108</v>
@@ -3872,7 +3873,7 @@
     <row r="107" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2308845297415788</v>
+        <v>0.5426007183042193</v>
       </c>
       <c r="B107" s="2">
         <v>5</v>
@@ -3896,7 +3897,7 @@
     <row r="108" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53467831025861623</v>
+        <v>0.71049752000669886</v>
       </c>
       <c r="B108" s="2">
         <v>76</v>
@@ -3920,7 +3921,7 @@
     <row r="109" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11976913402563794</v>
+        <v>0.38384294791828422</v>
       </c>
       <c r="B109" s="2">
         <v>46</v>
@@ -3944,7 +3945,7 @@
     <row r="110" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29127443241598328</v>
+        <v>0.24836804098609588</v>
       </c>
       <c r="B110" s="2">
         <v>66</v>
@@ -3971,7 +3972,7 @@
     <row r="111" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14053529820428401</v>
+        <v>0.1938007571289766</v>
       </c>
       <c r="B111" s="2">
         <v>35</v>
@@ -3998,7 +3999,7 @@
     <row r="112" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50609787063267542</v>
+        <v>8.7503407348146656E-2</v>
       </c>
       <c r="B112" s="2">
         <v>52</v>
@@ -4022,7 +4023,7 @@
     <row r="113" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75868610566467609</v>
+        <v>0.1685110919488978</v>
       </c>
       <c r="B113" s="2">
         <v>67</v>
@@ -4049,7 +4050,7 @@
     <row r="114" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.775941062004322</v>
+        <v>0.64607667080887654</v>
       </c>
       <c r="B114" s="2">
         <v>25</v>
@@ -4073,7 +4074,7 @@
     <row r="115" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55333997813286184</v>
+        <v>0.82858163621202707</v>
       </c>
       <c r="B115" s="2">
         <v>45</v>
@@ -4097,7 +4098,7 @@
     <row r="116" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82234389717951939</v>
+        <v>6.6945519803337517E-3</v>
       </c>
       <c r="B116" s="2">
         <v>77</v>
@@ -4121,7 +4122,7 @@
     <row r="117" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7323017338150426</v>
+        <v>0.36883310949417725</v>
       </c>
       <c r="B117" s="2">
         <v>97</v>
@@ -4148,7 +4149,7 @@
     <row r="118" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62571087555652483</v>
+        <v>0.35160897560890791</v>
       </c>
       <c r="B118" s="2">
         <v>68</v>
@@ -4172,7 +4173,7 @@
     <row r="119" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38195127380102956</v>
+        <v>0.33152170793421309</v>
       </c>
       <c r="B119" s="2">
         <v>2</v>
@@ -4196,7 +4197,7 @@
     <row r="120" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24355791813783922</v>
+        <v>8.9690299751996938E-2</v>
       </c>
       <c r="B120" s="2">
         <v>26</v>
@@ -4305,7 +4306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="A182" sqref="A121:XFD182"/>
     </sheetView>
   </sheetViews>
